--- a/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>122305</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105849</v>
+        <v>104255</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>140886</v>
+        <v>140526</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2189363366356646</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1894787032640093</v>
+        <v>0.1866244200863681</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2521981794952611</v>
+        <v>0.2515526890054252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>438</v>
@@ -762,19 +762,19 @@
         <v>238412</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>219040</v>
+        <v>221137</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>257953</v>
+        <v>257652</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3017857321141985</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2772648786120356</v>
+        <v>0.2799191344641678</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3265212299501649</v>
+        <v>0.3261405779891019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>602</v>
@@ -783,19 +783,19 @@
         <v>360717</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>333436</v>
+        <v>333481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>387004</v>
+        <v>385688</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2674678021800374</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2472396060238681</v>
+        <v>0.2472723024246012</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2869591056949585</v>
+        <v>0.2859832749284542</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>436328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>417747</v>
+        <v>418107</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>452784</v>
+        <v>454378</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7810636633643355</v>
+        <v>0.7810636633643354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7478018205047389</v>
+        <v>0.7484473109945747</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8105212967359895</v>
+        <v>0.8133755799136316</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>929</v>
@@ -833,19 +833,19 @@
         <v>551592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>532051</v>
+        <v>532352</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>570964</v>
+        <v>568867</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6982142678858014</v>
+        <v>0.6982142678858017</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6734787700498351</v>
+        <v>0.6738594220108981</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7227351213879644</v>
+        <v>0.7200808655358321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1437</v>
@@ -854,19 +854,19 @@
         <v>987920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>961633</v>
+        <v>962949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1015201</v>
+        <v>1015156</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7325321978199626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7130408943050415</v>
+        <v>0.7140167250715459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7527603939761318</v>
+        <v>0.7527276975753989</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>187335</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>164304</v>
+        <v>161602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>216755</v>
+        <v>214032</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08494459418743011</v>
+        <v>0.08494459418743013</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07450177628738659</v>
+        <v>0.07327659891602373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09828503742816021</v>
+        <v>0.09705018081239405</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>378</v>
@@ -979,19 +979,19 @@
         <v>239726</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>215580</v>
+        <v>215652</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>265177</v>
+        <v>267233</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1117951669708882</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.100534974628781</v>
+        <v>0.1005686447616519</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1236640847870521</v>
+        <v>0.1246230489839938</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>593</v>
@@ -1000,19 +1000,19 @@
         <v>427060</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>391528</v>
+        <v>391461</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>466059</v>
+        <v>464165</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09818147003229946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09001248002602438</v>
+        <v>0.08999713052648166</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1071472957434489</v>
+        <v>0.1067117895905784</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>2018040</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1988620</v>
+        <v>1991343</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2041071</v>
+        <v>2043773</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9150554058125697</v>
+        <v>0.9150554058125699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9017149625718397</v>
+        <v>0.9029498191876059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9254982237126134</v>
+        <v>0.9267234010839758</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2506</v>
@@ -1050,19 +1050,19 @@
         <v>1904605</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1879154</v>
+        <v>1877098</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1928751</v>
+        <v>1928679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8882048330291119</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8763359152129473</v>
+        <v>0.8753769510160061</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8994650253712189</v>
+        <v>0.8994313552383483</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4261</v>
@@ -1071,19 +1071,19 @@
         <v>3922645</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3883646</v>
+        <v>3885540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3958177</v>
+        <v>3958244</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9018185299677006</v>
+        <v>0.9018185299677005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8928527042565507</v>
+        <v>0.8932882104094217</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9099875199739753</v>
+        <v>0.9100028694735183</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>44978</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33124</v>
+        <v>32679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61440</v>
+        <v>61008</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06358115597649215</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04682461919157566</v>
+        <v>0.04619557642981415</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08685168903897335</v>
+        <v>0.08624145793817094</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1196,19 +1196,19 @@
         <v>62186</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50545</v>
+        <v>50018</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77331</v>
+        <v>77700</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08509638969468035</v>
+        <v>0.08509638969468034</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0691656679816877</v>
+        <v>0.06844471020428371</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1058207448267515</v>
+        <v>0.1063251111510896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -1217,19 +1217,19 @@
         <v>107165</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90864</v>
+        <v>88389</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>129111</v>
+        <v>128266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07451352291775368</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06317951535030178</v>
+        <v>0.0614587889028913</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08977320163010062</v>
+        <v>0.08918605123024036</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>662435</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>645973</v>
+        <v>646405</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>674289</v>
+        <v>674734</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9364188440235079</v>
+        <v>0.9364188440235078</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9131483109610268</v>
+        <v>0.913758542061829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9531753808084245</v>
+        <v>0.9538044235701859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>908</v>
@@ -1267,19 +1267,19 @@
         <v>668590</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653445</v>
+        <v>653076</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>680231</v>
+        <v>680758</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9149036103053196</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8941792551732487</v>
+        <v>0.8936748888489102</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9308343320183124</v>
+        <v>0.9315552897957163</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1540</v>
@@ -1288,19 +1288,19 @@
         <v>1331024</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1309078</v>
+        <v>1309923</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1347325</v>
+        <v>1349800</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9254864770822464</v>
+        <v>0.9254864770822465</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9102267983698995</v>
+        <v>0.9108139487697597</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9368204846496985</v>
+        <v>0.9385412110971086</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>354618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>320907</v>
+        <v>320619</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>393687</v>
+        <v>392186</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1021535308342412</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09244246159179893</v>
+        <v>0.09235962149578539</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1134080729213138</v>
+        <v>0.1129755824834664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>907</v>
@@ -1413,19 +1413,19 @@
         <v>540324</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>507554</v>
+        <v>500942</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>578926</v>
+        <v>574058</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1474236824588007</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.138482633059831</v>
+        <v>0.1366785664352387</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1579558986312634</v>
+        <v>0.1566278556873505</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1331</v>
@@ -1434,19 +1434,19 @@
         <v>894942</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>844959</v>
+        <v>842516</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>946516</v>
+        <v>950766</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1254029339522456</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1183990649078163</v>
+        <v>0.1180568011513456</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1326297375563232</v>
+        <v>0.1332252459055012</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3116803</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3077734</v>
+        <v>3079235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3150514</v>
+        <v>3150802</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8978464691657587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8865919270786862</v>
+        <v>0.8870244175165335</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.907557538408201</v>
+        <v>0.9076403785042146</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4343</v>
@@ -1484,19 +1484,19 @@
         <v>3124786</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3086184</v>
+        <v>3091052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3157556</v>
+        <v>3164168</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8525763175411992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.842044101368736</v>
+        <v>0.8433721443126494</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8615173669401688</v>
+        <v>0.8633214335647612</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7238</v>
@@ -1505,19 +1505,19 @@
         <v>6241590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6190016</v>
+        <v>6185766</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6291573</v>
+        <v>6294016</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8745970660477544</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8673702624436763</v>
+        <v>0.8667747540944988</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8816009350921837</v>
+        <v>0.8819431988486546</v>
       </c>
     </row>
     <row r="15">
